--- a/pages/api/test/propertylist.xlsx
+++ b/pages/api/test/propertylist.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -121,6 +121,9 @@
     <t>VIC</t>
   </si>
   <si>
+    <t>https://www.realvantage.co/insights/content/images/2020/12/Investing-in-Australian-Residential-Real-Estate.jpg</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440002</t>
   </si>
   <si>
@@ -142,6 +145,9 @@
     <t>QLD</t>
   </si>
   <si>
+    <t>https://cdn.corporatefinanceinstitute.com/assets/real-estate.jpeg</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440003</t>
   </si>
   <si>
@@ -163,6 +169,9 @@
     <t>SA</t>
   </si>
   <si>
+    <t>https://mediaassets.cbre.com/-/media/project/cbre/shared-site/insights/books/us-real-estate-market-outlook-2023-media-folder/us-real-estate-market-outlook-2023-hero-972x1296.jpg</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440004</t>
   </si>
   <si>
@@ -184,6 +193,9 @@
     <t>WA</t>
   </si>
   <si>
+    <t>https://www.google.com/url?sa=i&amp;url=https%3A%2F%2Fwww.build-review.com%2Fvisionary-ai-platform-is-reinventing-luxury-real-estate-with-a-people-first-approach%2F&amp;psig=AOvVaw34oY057cVZMSlj7qTQnzZf&amp;ust=1721843858159000&amp;source=images&amp;cd=vfe&amp;opi=89978449&amp;ved=0CBEQjRxqFwoTCPCgp63evYcDFQAAAAAdAAAAABAh</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440005</t>
   </si>
   <si>
@@ -193,6 +205,9 @@
     <t>sarah.lee@example.com</t>
   </si>
   <si>
+    <t>https://i.pravatar.cc/251</t>
+  </si>
+  <si>
     <t>Birchwood Cottages</t>
   </si>
   <si>
@@ -202,6 +217,9 @@
     <t>TAS</t>
   </si>
   <si>
+    <t>https://www.bankrate.com/2022/09/01171315/Commercial-real-estate.jpg?auto=webp&amp;optimize=high&amp;crop=16:9</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440006</t>
   </si>
   <si>
@@ -214,12 +232,18 @@
     <t>agent</t>
   </si>
   <si>
+    <t>https://i.pravatar.cc/252</t>
+  </si>
+  <si>
     <t>Cedar Heights</t>
   </si>
   <si>
     <t>404 Cedar St, NSW 4444</t>
   </si>
   <si>
+    <t>https://s.yimg.com/ny/api/res/1.2/YreAoN_qV1rbTuIERAYIqA--/YXBwaWQ9aGlnaGxhbmRlcjt3PTY0MDtoPTQyNw--/https://media.zenfs.com/en/Benzinga/a973cd6c9739c8ac5e25f67ecc3e9e58</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440007</t>
   </si>
   <si>
@@ -229,12 +253,18 @@
     <t>olivia.martinez@example.com</t>
   </si>
   <si>
+    <t>https://i.pravatar.cc/253</t>
+  </si>
+  <si>
     <t>Willow Springs</t>
   </si>
   <si>
     <t>505 Willow St,  NSW 4251</t>
   </si>
   <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRhmXEF7rzW9Vx5WBc4pi5AuULp4ejVmwCpbw&amp;s</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440008</t>
   </si>
   <si>
@@ -244,12 +274,18 @@
     <t>benjamin.clark@example.com</t>
   </si>
   <si>
+    <t>https://i.pravatar.cc/254</t>
+  </si>
+  <si>
     <t>Spruce Point</t>
   </si>
   <si>
     <t>606 Spruce St, NSW 1023</t>
   </si>
   <si>
+    <t>https://professional.dce.harvard.edu/wp-content/uploads/sites/9/2022/04/real-estate-investments.gif</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440009</t>
   </si>
   <si>
@@ -259,12 +295,18 @@
     <t>chloe.walker@example.com</t>
   </si>
   <si>
+    <t>https://i.pravatar.cc/255</t>
+  </si>
+  <si>
     <t>Fir Tree Meadows</t>
   </si>
   <si>
     <t>808 Chestnut St, QLD 1245</t>
   </si>
   <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSYNksZ2Un2m9IPdZqYIKaL-N1e8t_DMr8BJg&amp;s</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440010</t>
   </si>
   <si>
@@ -274,12 +316,18 @@
     <t>alexander.allen@example.com</t>
   </si>
   <si>
+    <t>https://i.pravatar.cc/256</t>
+  </si>
+  <si>
     <t>Chestnut Park</t>
   </si>
   <si>
     <t>909 Redwood St, SA 1444</t>
   </si>
   <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTuHziLnUTia9mdVRLDtROrXDbE9w0XtVq8sw&amp;s</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440011</t>
   </si>
   <si>
@@ -289,12 +337,18 @@
     <t>mia.adams@example.com</t>
   </si>
   <si>
+    <t>https://i.pravatar.cc/257</t>
+  </si>
+  <si>
     <t>Redwood Retreat</t>
   </si>
   <si>
     <t>1010 Poplar St, WA 4125</t>
   </si>
   <si>
+    <t>https://img-v2.gtsstatic.net/reno/imagereader.aspx?imageurl=https%3A%2F%2Fsir.azureedge.net%2F1103i215%2Ff6vgbbbw006z4dajyqx8hz6as1i215&amp;option=N&amp;h=472&amp;permitphotoenlargement=false</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440012</t>
   </si>
   <si>
@@ -307,12 +361,18 @@
     <t>tenant</t>
   </si>
   <si>
+    <t>https://i.pravatar.cc/258</t>
+  </si>
+  <si>
     <t>Poplar Grove</t>
   </si>
   <si>
     <t>1111 Sycamore St, SA 1444</t>
   </si>
   <si>
+    <t>https://e-images.juwaistatic.com/content-site/2021/01/20055514/shutterstock_721987588-scaled.jpg</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440013</t>
   </si>
   <si>
@@ -322,12 +382,18 @@
     <t>charlotte.thompson@example.com</t>
   </si>
   <si>
+    <t>https://i.pravatar.cc/259</t>
+  </si>
+  <si>
     <t>Sycamore Gardens</t>
   </si>
   <si>
     <t>1212 Dogwood St, SA 1444</t>
   </si>
   <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT07ubEPqS4ZQiXXj0isYwW-irX9ffTUmP1fQ&amp;s</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440014</t>
   </si>
   <si>
@@ -337,12 +403,18 @@
     <t>daniel.robinson@example.com</t>
   </si>
   <si>
+    <t>https://i.pravatar.cc/260</t>
+  </si>
+  <si>
     <t>Dogwood Court</t>
   </si>
   <si>
     <t>1313 Juniper St, VIC 1111</t>
   </si>
   <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTWvK7S84vAMkG4RQz5Qa5EIgibZMl3DjxY7Q&amp;s</t>
+  </si>
+  <si>
     <t>550e8400-e29b-41d4-a716-446655440015</t>
   </si>
   <si>
@@ -352,10 +424,16 @@
     <t>isabella.king@example.com</t>
   </si>
   <si>
+    <t>https://i.pravatar.cc/261</t>
+  </si>
+  <si>
     <t>Juniper Hills</t>
   </si>
   <si>
     <t>1314 Juniper St, VIC 1111</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQL8kTOEbAxcwD1miGi9kj8HT4Vb43F_1Nrug&amp;s</t>
   </si>
 </sst>
 </file>
@@ -365,7 +443,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -394,6 +472,11 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -409,7 +492,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -439,6 +522,9 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -657,8 +743,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="28.88"/>
+    <col customWidth="1" min="10" max="10" width="34.13"/>
     <col customWidth="1" min="12" max="12" width="24.63"/>
     <col customWidth="1" min="13" max="13" width="22.38"/>
+    <col customWidth="1" min="15" max="15" width="47.63"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -822,8 +910,8 @@
       <c r="N3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O3" s="7" t="s">
-        <v>27</v>
+      <c r="O3" s="10" t="s">
+        <v>36</v>
       </c>
       <c r="P3" s="8">
         <v>11000.0</v>
@@ -840,10 +928,10 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C4" s="4">
         <v>31118.0</v>
@@ -858,7 +946,7 @@
         <v>4.364344592E9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H4" s="5">
         <v>43908.0</v>
@@ -867,22 +955,22 @@
         <v>22</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K4" s="1">
         <v>3.0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>44</v>
       </c>
       <c r="P4" s="8">
         <v>15000.0</v>
@@ -899,10 +987,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="4">
         <v>33146.0</v>
@@ -917,7 +1005,7 @@
         <v>4.364344593E9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H5" s="5">
         <v>43909.0</v>
@@ -926,22 +1014,22 @@
         <v>22</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K5" s="1">
         <v>4.0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="P5" s="8">
         <v>11000.0</v>
@@ -958,10 +1046,10 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" s="4">
         <v>28814.0</v>
@@ -976,7 +1064,7 @@
         <v>4.364344594E9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H6" s="5">
         <v>43910.0</v>
@@ -985,22 +1073,22 @@
         <v>22</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K6" s="1">
         <v>5.0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>27</v>
+        <v>59</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="P6" s="8">
         <v>15246.0</v>
@@ -1017,10 +1105,10 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4">
         <v>31963.0</v>
@@ -1035,7 +1123,7 @@
         <v>4.364344595E9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="H7" s="5">
         <v>43911.0</v>
@@ -1044,22 +1132,22 @@
         <v>22</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="K7" s="1">
         <v>6.0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>67</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="P7" s="8">
         <v>41222.0</v>
@@ -1076,10 +1164,10 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="C8" s="4">
         <v>30059.0</v>
@@ -1094,31 +1182,31 @@
         <v>4.364344596E9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H8" s="5">
         <v>43912.0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="K8" s="1">
         <v>7.0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O8" s="7" t="s">
-        <v>27</v>
+      <c r="O8" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="P8" s="8">
         <v>41222.0</v>
@@ -1135,10 +1223,10 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C9" s="4">
         <v>34265.0</v>
@@ -1153,31 +1241,31 @@
         <v>4.364344597E9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H9" s="5">
         <v>43913.0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="K9" s="1">
         <v>8.0</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O9" s="7" t="s">
-        <v>27</v>
+      <c r="O9" s="10" t="s">
+        <v>83</v>
       </c>
       <c r="P9" s="8">
         <v>12000.0</v>
@@ -1194,10 +1282,10 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C10" s="4">
         <v>29644.0</v>
@@ -1212,31 +1300,31 @@
         <v>4.364344598E9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="H10" s="5">
         <v>43914.0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="K10" s="1">
         <v>9.0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="7" t="s">
-        <v>27</v>
+      <c r="O10" s="10" t="s">
+        <v>90</v>
       </c>
       <c r="P10" s="8">
         <v>12000.0</v>
@@ -1253,10 +1341,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C11" s="4">
         <v>34927.0</v>
@@ -1271,31 +1359,31 @@
         <v>4.364344599E9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H11" s="5">
         <v>43915.0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K11" s="1">
         <v>10.0</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>83</v>
+        <v>96</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="P11" s="8">
         <v>12000.0</v>
@@ -1312,10 +1400,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C12" s="4">
         <v>30654.0</v>
@@ -1330,31 +1418,31 @@
         <v>4.3643446E9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="H12" s="5">
         <v>43916.0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="K12" s="1">
         <v>11.0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="P12" s="8">
         <v>12000.0</v>
@@ -1371,10 +1459,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="C13" s="4">
         <v>32637.0</v>
@@ -1389,31 +1477,31 @@
         <v>4.364344601E9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="H13" s="5">
         <v>43917.0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="K13" s="1">
         <v>12.0</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>27</v>
+        <v>59</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="P13" s="8">
         <v>12000.0</v>
@@ -1430,10 +1518,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="C14" s="4">
         <v>28440.0</v>
@@ -1448,31 +1536,31 @@
         <v>4.364344602E9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="H14" s="5">
         <v>43918.0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="K14" s="1">
         <v>13.0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>119</v>
       </c>
       <c r="P14" s="8">
         <v>12000.0</v>
@@ -1489,10 +1577,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="C15" s="4">
         <v>34536.0</v>
@@ -1507,31 +1595,31 @@
         <v>4.364344603E9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="H15" s="5">
         <v>43919.0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="K15" s="1">
         <v>14.0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>103</v>
+        <v>124</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="7" t="s">
-        <v>27</v>
+        <v>51</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>126</v>
       </c>
       <c r="P15" s="8">
         <v>12000.0</v>
@@ -1548,10 +1636,10 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="C16" s="4">
         <v>30710.0</v>
@@ -1566,31 +1654,31 @@
         <v>4.364344604E9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="H16" s="5">
         <v>43920.0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="K16" s="1">
         <v>15.0</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>109</v>
+        <v>132</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O16" s="7" t="s">
-        <v>27</v>
+      <c r="O16" s="10" t="s">
+        <v>133</v>
       </c>
       <c r="P16" s="8">
         <v>12000.0</v>
@@ -1607,10 +1695,10 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="C17" s="4">
         <v>33314.0</v>
@@ -1625,31 +1713,31 @@
         <v>4.364344605E9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="H17" s="5">
         <v>43921.0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
       <c r="K17" s="1">
         <v>16.0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>113</v>
+        <v>138</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>114</v>
+        <v>139</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O17" s="7" t="s">
-        <v>27</v>
+      <c r="O17" s="10" t="s">
+        <v>140</v>
       </c>
       <c r="P17" s="8">
         <v>12000.0</v>

--- a/pages/api/test/propertylist.xlsx
+++ b/pages/api/test/propertylist.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="142">
   <si>
     <t>id</t>
   </si>
@@ -67,40 +67,43 @@
     <t>550e8400-e29b-41d4-a716-446655440000</t>
   </si>
   <si>
-    <t>John Smith</t>
+    <t xml:space="preserve">Jeremy Hastings </t>
+  </si>
+  <si>
+    <t>Jeremy Hastings is a serial entrepreneur and Founder of Hutly, an Australian-based technology company that connects people in property at the time of a real estate contract to make them more productive and successful, which he launched in 2018. Hutly now services over 47 percent of the East Coast property market with 4000 agencies on the platform, 1 million contracts processed per annum, and approximately $18 billion of contract value per annum on platform.</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>jeremy@example.com</t>
+  </si>
+  <si>
+    <t>landlord</t>
+  </si>
+  <si>
+    <t>https://media.licdn.com/dms/image/D5603AQF0-xrTkQ20Ww/profile-displayphoto-shrink_200_200/0/1708592318824?e=2147483647&amp;v=beta&amp;t=5R1Z-DAzCSlcC5MlHAuKy6d6YTNC0zVgq4w1bU6mv5Q</t>
+  </si>
+  <si>
+    <t>Riverside Villas</t>
+  </si>
+  <si>
+    <t>123 Main St, NSW 1122</t>
+  </si>
+  <si>
+    <t>NSW</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTTDg-Su0SiwXNP88Oz1j2GV_bU8Hm9gpeB6Q&amp;s</t>
+  </si>
+  <si>
+    <t>550e8400-e29b-41d4-a716-446655440001</t>
+  </si>
+  <si>
+    <t>Emily Davis</t>
   </si>
   <si>
     <t>NULL</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>john.smith@example.com</t>
-  </si>
-  <si>
-    <t>landlord</t>
-  </si>
-  <si>
-    <t>https://i.pravatar.cc/100</t>
-  </si>
-  <si>
-    <t>Riverside Villas</t>
-  </si>
-  <si>
-    <t>123 Main St, NSW 1122</t>
-  </si>
-  <si>
-    <t>NSW</t>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTTDg-Su0SiwXNP88Oz1j2GV_bU8Hm9gpeB6Q&amp;s</t>
-  </si>
-  <si>
-    <t>550e8400-e29b-41d4-a716-446655440001</t>
-  </si>
-  <si>
-    <t>Emily Davis</t>
   </si>
   <si>
     <t>Female</t>
@@ -878,16 +881,16 @@
         <v>33780.0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="1">
         <v>4.364344591E9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" s="5">
         <v>43907.0</v>
@@ -896,22 +899,22 @@
         <v>22</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="1">
         <v>2.0</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P3" s="8">
         <v>11000.0</v>
@@ -928,16 +931,16 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="4">
         <v>31118.0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>20</v>
@@ -946,7 +949,7 @@
         <v>4.364344592E9</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="5">
         <v>43908.0</v>
@@ -955,22 +958,22 @@
         <v>22</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K4" s="1">
         <v>3.0</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P4" s="8">
         <v>15000.0</v>
@@ -987,25 +990,25 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="4">
         <v>33146.0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="1">
         <v>4.364344593E9</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H5" s="5">
         <v>43909.0</v>
@@ -1014,22 +1017,22 @@
         <v>22</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="1">
         <v>4.0</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O5" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P5" s="8">
         <v>11000.0</v>
@@ -1046,16 +1049,16 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C6" s="4">
         <v>28814.0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>20</v>
@@ -1064,7 +1067,7 @@
         <v>4.364344594E9</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H6" s="5">
         <v>43910.0</v>
@@ -1073,22 +1076,22 @@
         <v>22</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6" s="1">
         <v>5.0</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P6" s="8">
         <v>15246.0</v>
@@ -1105,25 +1108,25 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C7" s="4">
         <v>31963.0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1">
         <v>4.364344595E9</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H7" s="5">
         <v>43911.0</v>
@@ -1132,22 +1135,22 @@
         <v>22</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K7" s="1">
         <v>6.0</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P7" s="8">
         <v>41222.0</v>
@@ -1164,16 +1167,16 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" s="4">
         <v>30059.0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>20</v>
@@ -1182,31 +1185,31 @@
         <v>4.364344596E9</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H8" s="5">
         <v>43912.0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K8" s="1">
         <v>7.0</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O8" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="8">
         <v>41222.0</v>
@@ -1223,49 +1226,49 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4">
         <v>34265.0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="1">
         <v>4.364344597E9</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" s="5">
         <v>43913.0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K9" s="1">
         <v>8.0</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O9" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P9" s="8">
         <v>12000.0</v>
@@ -1282,16 +1285,16 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10" s="4">
         <v>29644.0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>20</v>
@@ -1300,31 +1303,31 @@
         <v>4.364344598E9</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H10" s="5">
         <v>43914.0</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K10" s="1">
         <v>9.0</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>26</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P10" s="8">
         <v>12000.0</v>
@@ -1341,49 +1344,49 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="4">
         <v>34927.0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F11" s="1">
         <v>4.364344599E9</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H11" s="5">
         <v>43915.0</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K11" s="1">
         <v>10.0</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P11" s="8">
         <v>12000.0</v>
@@ -1400,16 +1403,16 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="4">
         <v>30654.0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>20</v>
@@ -1418,31 +1421,31 @@
         <v>4.3643446E9</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H12" s="5">
         <v>43916.0</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K12" s="1">
         <v>11.0</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O12" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P12" s="8">
         <v>12000.0</v>
@@ -1459,49 +1462,49 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C13" s="4">
         <v>32637.0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F13" s="1">
         <v>4.364344601E9</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H13" s="5">
         <v>43917.0</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K13" s="1">
         <v>12.0</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P13" s="8">
         <v>12000.0</v>
@@ -1518,16 +1521,16 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C14" s="4">
         <v>28440.0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>20</v>
@@ -1536,31 +1539,31 @@
         <v>4.364344602E9</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H14" s="5">
         <v>43918.0</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K14" s="1">
         <v>13.0</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O14" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P14" s="8">
         <v>12000.0</v>
@@ -1577,49 +1580,49 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C15" s="4">
         <v>34536.0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1">
         <v>4.364344603E9</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H15" s="5">
         <v>43919.0</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K15" s="1">
         <v>14.0</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O15" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P15" s="8">
         <v>12000.0</v>
@@ -1636,16 +1639,16 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C16" s="4">
         <v>30710.0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>20</v>
@@ -1654,31 +1657,31 @@
         <v>4.364344604E9</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H16" s="5">
         <v>43920.0</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K16" s="1">
         <v>15.0</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O16" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P16" s="8">
         <v>12000.0</v>
@@ -1695,49 +1698,49 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C17" s="4">
         <v>33314.0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1">
         <v>4.364344605E9</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H17" s="5">
         <v>43921.0</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K17" s="1">
         <v>16.0</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O17" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P17" s="8">
         <v>12000.0</v>
